--- a/medicine/Soins infirmiers et profession infirmière/Fédération_nationale_des_infirmiers/Fédération_nationale_des_infirmiers.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Fédération_nationale_des_infirmiers/Fédération_nationale_des_infirmiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+          <t>Fédération_nationale_des_infirmiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération nationale des infirmiers (FNI) est une organisation syndicale française représentant les infirmiers diplômés d’État libéraux (IDEL) depuis 1949.
-La FNI est reconnue syndicat représentatif[1] lors de la dernière enquête de représentativité de 2016 lui permettant ainsi de négocier la Convention nationale infirmière avec l'UNCAM et de siéger dans les instances représentatives de la profession[2].
-La FNI est la première organisation représentative des infirmières libérales[1] tant en nombre d'adhérents qu'en matière d'audience électorale. Ainsi, le scrutin URPS d'avril 2021 confère 42,4% des voix à la seule FNI alors que quatre syndicats infirmiers étaient en compétition[3].
+La FNI est reconnue syndicat représentatif lors de la dernière enquête de représentativité de 2016 lui permettant ainsi de négocier la Convention nationale infirmière avec l'UNCAM et de siéger dans les instances représentatives de la profession.
+La FNI est la première organisation représentative des infirmières libérales tant en nombre d'adhérents qu'en matière d'audience électorale. Ainsi, le scrutin URPS d'avril 2021 confère 42,4% des voix à la seule FNI alors que quatre syndicats infirmiers étaient en compétition.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+          <t>Fédération_nationale_des_infirmiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+          <t>Fédération_nationale_des_infirmiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+          <t>Fédération_nationale_des_infirmiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,101 +583,299 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indépendance politique
-La FNI, syndicat professionnel indépendant, est libre de tout lien politique ou confessionnel, cette indépendance morale et politique est statutaire :
+          <t>Indépendance politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La FNI, syndicat professionnel indépendant, est libre de tout lien politique ou confessionnel, cette indépendance morale et politique est statutaire :
 dans les Statuts Fédéraux : article 1 ter : « la Fédération s’interdit toute activité politique et confessionnelle. »
 dans les Statuts départementaux : article 1 : « le syndicat s’interdit toutes discussions ou actions politiques ou confessionnelles. »
 dans les Statuts des Unions Régionales FNI : article 2 : « l’union régionale s’interdit toute activité politique ou confessionnelle. »
 La FNI n’entretient aucun lien de subordination avec aucune centrale syndicale.
-Indépendance financière
-L’indépendance financière de la FNI est totale, conformément à l’article 13 des statuts fédéraux précisant que ses ressources sont constituées par : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Indépendance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indépendance financière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’indépendance financière de la FNI est totale, conformément à l’article 13 des statuts fédéraux précisant que ses ressources sont constituées par : 
 Les cotisations
 Les legs et subventions faits à la Fédération
 Les intérêts des fonds placés
 Les amendes, les indemnités judiciaires ou autres.
 L’indépendance financière se décline au niveau départemental selon les mêmes règles. Les syndicats départementaux affiliés à la FNI jouissent d’une pleine autonomie financière et de gestion. Chaque syndicat départemental affilié à la FNI adopte les statuts types conformément aux Statuts fédéraux. 
 La FNI offre prioritairement à ses adhérents et selon les cas plus largement à toute la profession, différents services en lien avec l’exercice libéral de la profession d’infirmier. Qu’il s’agisse d’information, de formation, de communication ou de conseils, l’administration et la gestion de ces services annexe sont assurées par la FNI en toute transparence.
-Indépendance vis-à-vis des tutelles
-Contrairement aux syndicats médicaux, les syndicats infirmiers ne reçoivent aucune contrepartie financière lorsqu’ils signent la convention liant la profession à l’UNCAM.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Indépendance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indépendance vis-à-vis des tutelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux syndicats médicaux, les syndicats infirmiers ne reçoivent aucune contrepartie financière lorsqu’ils signent la convention liant la profession à l’UNCAM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Représentativité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élections URPS
-Premières élections URPS (2010)
-En décembre 2010 se sont déroulées les premières élections aux Unions régionales des professionnels de santé (URPS). Ce scrutin s’est déroulé dans 26 régions avec 333 sièges à pourvoir pour 67 040 professionnels inscrits. Les quatre syndicats représentatifs ont présenté des listes de manière hétérogène.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Élections URPS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Premières élections URPS (2010)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2010 se sont déroulées les premières élections aux Unions régionales des professionnels de santé (URPS). Ce scrutin s’est déroulé dans 26 régions avec 333 sièges à pourvoir pour 67 040 professionnels inscrits. Les quatre syndicats représentatifs ont présenté des listes de manière hétérogène.
 La FNI est arrivée en tête sur 13 régions avec une majorité absolue dans 9 régions. La FNI arrive en tête en nombre d’élus (37,73%) malgré le fait qu’elle n’a pas présenté de liste en Corse et à la Réunion.
-Élections de 2016
-Les résultats aux élections professionnelles URPS de 2016 conforte la place de la FNI : Elle réalise un meilleur score qu’en 2010, puisqu’elle devance le Sniil tant en termes de nombre de sièges aux URPS (107 contre 101) qu’en termes de suffrages sur le plan national (5801 voix pour la FNI contre 5520 pour le Sniil).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Représentativité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Élections URPS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Élections de 2016</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résultats aux élections professionnelles URPS de 2016 conforte la place de la FNI : Elle réalise un meilleur score qu’en 2010, puisqu’elle devance le Sniil tant en termes de nombre de sièges aux URPS (107 contre 101) qu’en termes de suffrages sur le plan national (5801 voix pour la FNI contre 5520 pour le Sniil).
 À la suite des élections des bureaux des URPS organisées au début de juillet 2016, la FNI obtient la présidence dans 11 régions sur 17.
-Élections de 2021
-En 2021, les élections des représentants des infirmiers libéraux conventionnés aux Unions régionales des professionnels de santé (URPS) se déroulent pour la première fois par voie électronique. Le scrutin a été ouvert le 31 mars à midi et clos le 7 avril à midi. Le bureau de vote national s’est réuni dès la clôture du scrutin pour le dépouillement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Représentativité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Élections URPS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Élections de 2021</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, les élections des représentants des infirmiers libéraux conventionnés aux Unions régionales des professionnels de santé (URPS) se déroulent pour la première fois par voie électronique. Le scrutin a été ouvert le 31 mars à midi et clos le 7 avril à midi. Le bureau de vote national s’est réuni dès la clôture du scrutin pour le dépouillement.
 Les résultats permettent également de mesurer l’audience des syndicats, critère pris en compte ensuite dans le cadre de l’enquête de représentativité.
 Le taux de participation est de 19,83%, en retrait de 3,46 points par rapport à la participation au précédent scrutin, 23,29% en 2015.
-Les équilibres syndicaux à l’issue de ce scrutin sont les suivants[3]:
+Les équilibres syndicaux à l’issue de ce scrutin sont les suivants:
 La Fédération nationale des infirmiers (FNI) passe de 36,95% en 2015 à 42,4% en 2021.
 Le Syndicat national des infirmières et infirmiers libéraux (SNIIL) passe de 35,16% en 2015 à 25,4% en 2021.
 Convergence infirmière - Confédération nationale des syndicats d'infirmiers libéraux français passe de 18,48% en 2015 à 23,23% en 2021.
 INFIN'IDELS Syndicat des infirmiers libéraux obtient 8,96% en 2021.
 La Fédération nationale des infirmiers (FNI) reste la première organisation professionnelle représentative des infirmiers libéraux conventionnés.
-Élections à la CARPIMKO
-Les résultats des élections de 2016 à la CARPIMKO, parus le 5 juillet, sont venus confirmer la confiance des infirmières libérales envers la FNI en la plaçant en tête avec 32,22% des suffrages devant Convergence Infirmière et le SNIIL, arrivant en troisième position.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Représentativité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Élections à la CARPIMKO</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résultats des élections de 2016 à la CARPIMKO, parus le 5 juillet, sont venus confirmer la confiance des infirmières libérales envers la FNI en la plaçant en tête avec 32,22% des suffrages devant Convergence Infirmière et le SNIIL, arrivant en troisième position.
 Les résultats de élections de 2019 confortent la position de leader de la FNI : les électeurs placent la FNI très largement en tête avec 7336 voix (38,82%) alors que 5 listes étaient en concurrence. La FNI remporte alors 4 des 5 sièges à pourvoir.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Relations avec l’Union nationale des caisses d’assurance maladie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>La convention nationale des infirmiers prévoit une répartition des sièges de la section professionnelle des instances paritaires nationales, régionales et départementales entre les trois syndicats signataires.
 Commission Paritaire Nationale: La convention précise que la présidence de la section professionnelle de la commission paritaire nationale revient à la FNI. La FNI y a 2 titulaires et 2 suppléants.
@@ -671,31 +885,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Relations interprofessionnelles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>La FNI, de par son histoire, son expertise et la lisibilité de sa ligne syndicale, a su gagner une large audience au sein des instances interprofessionnelles nationales.
 Cette confiance renouvelée se mesure objectivement par la place qu’occupe la FNI dans les bureaux de ces instances nationales :
@@ -708,31 +924,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Siège social</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le siège social est situé au 3ème étage du 7 de la rue Godot de Mauroy, dans le 9e arrondissement de Paris.
 Les 1er et 5e étages sont la propriété de particuliers, alors que les 2ème et 4ème étage sont les locaux de l'AGAPI-FORM, organisme de formation comptable sans lien avec la FNI.
@@ -741,76 +959,184 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sociétés satellites</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afin de mener à bien ses missions et objectifs, la FNI a au fil du temps créé plusieurs sociétés spécialisées. La particularité commune à toutes ces sociétés est qu'elles sont constituées en SASU, dont l'unique actionnaire est la FNI (personne morale).
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Afin de mener à bien ses missions et objectifs, la FNI a au fil du temps créé plusieurs sociétés spécialisées. La particularité commune à toutes ces sociétés est qu'elles sont constituées en SASU, dont l'unique actionnaire est la FNI (personne morale).
 Cette structuration juridique a le double avantage de :
 Préserver l'économie de la FNI : si l'une de ces sociétés doit être liquidée, l'activité principale (syndicale) n'est pas atteinte.
-Empêcher la captation de l'une de ces sociétés par un dirigeant : l'actionnaire étant la FNI, aucun dirigeant ne peut percevoir de dividendes et s'enrichir ou encore conserver sa fonction au sein de celle-ci une fois son mandat terminé. Ce montage juridique permet donc d'éviter de disperser les activités de la FNI devant les aléas des élections internes.
-AFCOPIL
-L'AFCOPIL est une SASU de la FNI dont l'activité est la formation continue des professionnels de santé.
+Empêcher la captation de l'une de ces sociétés par un dirigeant : l'actionnaire étant la FNI, aucun dirigeant ne peut percevoir de dividendes et s'enrichir ou encore conserver sa fonction au sein de celle-ci une fois son mandat terminé. Ce montage juridique permet donc d'éviter de disperser les activités de la FNI devant les aléas des élections internes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sociétés satellites</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>AFCOPIL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AFCOPIL est une SASU de la FNI dont l'activité est la formation continue des professionnels de santé.
 Cet organisme de formation datadocké propose des formations présentielle, en e-learning, ou mixte ainsi que des classes virtuelles.
-SCS
-SCS pour Sphère Consulting Santé est une SASU de la FNI spécialisée dans l'ingénierie de projets, l'aide rédactionnelle, et le conseil. SCS a mis en place la première plateforme numérique de référencement des infirmiers libéraux[4]
-SPM
-SPM pour Santé Promotion Média est une régie publicitaire interne. SPM est chargée de la relation des annonceurs souhaitant diffuser des publicités sur les supports de communication de la FNI.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sociétés satellites</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SCS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCS pour Sphère Consulting Santé est une SASU de la FNI spécialisée dans l'ingénierie de projets, l'aide rédactionnelle, et le conseil. SCS a mis en place la première plateforme numérique de référencement des infirmiers libéraux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sociétés satellites</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SPM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPM pour Santé Promotion Média est une régie publicitaire interne. SPM est chargée de la relation des annonceurs souhaitant diffuser des publicités sur les supports de communication de la FNI.
 SPM est une SASU de la FNI.
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fédération_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_nationale_des_infirmiers</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Horizon 2030, Vision pour les soins infirmiers ambulatoires. Edition FNI. Lien direct PDF
-Etude Synalam/FNI[5] Lien étude Synalam</t>
+Etude Synalam/FNI Lien étude Synalam</t>
         </is>
       </c>
     </row>
